--- a/Project/Phase 2/Sprint2/Burndown chart.xlsx
+++ b/Project/Phase 2/Sprint2/Burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco\Desktop\repositorio\ganttproject\Project\Phase 2\Sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhertz/Documents/subjects/SE/ganttproject/Project/Phase 2/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD894A5-C6D3-4D43-861E-66F5273E9FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0881DA-03C6-4944-9C71-D5007DEC30F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1095" windowWidth="23850" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="1100" windowWidth="23860" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -54,37 +54,37 @@
     <t>Ideal Burndown</t>
   </si>
   <si>
-    <t>Encontrar/descrever use cases relacionados (Francisco)</t>
+    <t>Sprint 3 Burndown Chart</t>
   </si>
   <si>
-    <t>Encontrar/descrever use cases relacionados (Iago)</t>
+    <t>Find/discribe related use cases  (Francisco)</t>
   </si>
   <si>
-    <t>Encontrar/descrever use cases relacionados (James)</t>
+    <t>Find/discribe related use cases  (Iago)</t>
   </si>
   <si>
-    <t>Encontrar/descrever use cases relacionados (Joao)</t>
+    <t>Find/discribe related use cases  (James)</t>
   </si>
   <si>
-    <t>Encontrar/descrever use cases relacionados (Ricardo)</t>
+    <t>Find/discribe related use cases  (Joaoa)</t>
   </si>
   <si>
-    <t>Desenvolver um sub-diagrama (Francisco)</t>
+    <t>Find/discribe related use cases  (Ricardo)</t>
   </si>
   <si>
-    <t>Desenvolver um sub-diagrama (Iago)</t>
+    <t>Develop an use case sub-diagram  (Francisco)</t>
   </si>
   <si>
-    <t>Desenvolver um sub-diagrama (James)</t>
+    <t>Develop an use case sub-diagram  (Iago)</t>
   </si>
   <si>
-    <t>Desenvolver um sub-diagrama (Joao)</t>
+    <t>Develop an use case sub-diagram  (James)</t>
   </si>
   <si>
-    <t>Desenvolver um sub-diagrama (Ricardo)</t>
+    <t>Develop an use case sub-diagram  (Joao)</t>
   </si>
   <si>
-    <t>Sprint 3 Burndown Chart</t>
+    <t>Develop an use case sub-diagram  (Ricardo)</t>
   </si>
 </sst>
 </file>
@@ -188,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -499,11 +499,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,12 +567,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,9 +595,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,9 +613,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,6 +625,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +663,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -711,7 +725,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1063,7 +1077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1048433599"/>
@@ -1147,7 +1161,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1179,7 +1193,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1048432767"/>
@@ -1221,7 +1235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1258,7 +1272,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1867,7 +1881,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2165,53 +2179,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+    <row r="1" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+    <row r="3" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2239,9 +2253,9 @@
         <v>44885</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
+    <row r="5" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2267,14 +2281,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="38">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="5"/>
@@ -2289,14 +2303,14 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="C7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19">
         <v>2</v>
       </c>
       <c r="E7" s="7"/>
@@ -2311,14 +2325,14 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="19">
         <v>2</v>
       </c>
       <c r="E8" s="9"/>
@@ -2333,14 +2347,14 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="19">
         <v>2</v>
       </c>
       <c r="E9" s="10"/>
@@ -2353,14 +2367,14 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="39">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="C10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="20">
         <v>2</v>
       </c>
       <c r="E10" s="11"/>
@@ -2375,111 +2389,111 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="21">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="C11" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
         <v>1</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="21">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="C12" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23">
         <v>1</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="21">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="24">
+      <c r="C13" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="22">
         <v>1</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23">
         <v>1</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="21">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="C14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
         <v>1</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23">
+    <row r="15" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="C15" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="22">
         <v>1</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23">
         <v>1</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="1">
         <v>0</v>
       </c>
@@ -2513,11 +2527,11 @@
       </c>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="13">
         <f>SUM(D6:D16)</f>
         <v>15</v>
@@ -2550,13 +2564,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="26"/>
+      <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="15">
         <f>D17</f>
         <v>15</v>
@@ -2590,8 +2604,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L24" s="26"/>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
